--- a/write.xlsx
+++ b/write.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Aston Bojonegoro City Hotel</t>
   </si>
@@ -28,21 +28,36 @@
     <t xml:space="preserve">Handover Transaction No </t>
   </si>
   <si>
+    <t>0001</t>
+  </si>
+  <si>
     <t>Handed Over To ( Name )</t>
   </si>
   <si>
+    <t>Intan Noor Azizah</t>
+  </si>
+  <si>
     <t>Code No</t>
   </si>
   <si>
     <t>Department</t>
   </si>
   <si>
+    <t>Finance</t>
+  </si>
+  <si>
     <t>Handed Over By ( Name )</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Handover Date</t>
   </si>
   <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
     <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
   </si>
   <si>
@@ -68,12 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">Remarks </t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
   </si>
   <si>
     <t>Approved by: Finance Control, Head of Department, and General Manager</t>
@@ -416,7 +425,69 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -427,69 +498,7 @@
       </top>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -503,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -795,6 +804,39 @@
     <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -825,9 +867,6 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -845,33 +884,6 @@
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1214,7 +1226,7 @@
   <dimension ref="A1:WVS51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1807,33 +1819,33 @@
     <row r="4" spans="1:16139" customHeight="1" ht="15"/>
     <row r="5" spans="1:16139" customHeight="1" ht="20.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:16139" customHeight="1" ht="26.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:16139" customHeight="1" ht="15">
       <c r="A7" s="81"/>
@@ -1854,7 +1866,9 @@
         <v>2</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="84"/>
+      <c r="D8" s="97" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="84"/>
       <c r="F8" s="84"/>
       <c r="G8" s="84"/>
@@ -1892,10 +1906,12 @@
     <row r="11" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="46"/>
-      <c r="D11" s="93"/>
+      <c r="D11" s="93" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
       <c r="G11" s="46"/>
@@ -1907,10 +1923,12 @@
     <row r="12" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="45"/>
-      <c r="D12" s="95"/>
+      <c r="D12" s="95" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
       <c r="G12" s="45"/>
@@ -1922,10 +1940,12 @@
     <row r="13" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="45"/>
-      <c r="D13" s="95"/>
+      <c r="D13" s="95" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
       <c r="G13" s="45"/>
@@ -1976,10 +1996,12 @@
     <row r="17" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="46"/>
-      <c r="D17" s="71"/>
+      <c r="D17" s="71" t="s">
+        <v>10</v>
+      </c>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
       <c r="G17" s="31"/>
@@ -1991,10 +2013,12 @@
     <row r="18" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="45"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="63" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="57"/>
       <c r="F18" s="59"/>
       <c r="G18" s="31"/>
@@ -2006,10 +2030,12 @@
     <row r="19" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="63"/>
+      <c r="D19" s="63" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
@@ -2021,12 +2047,14 @@
     <row r="20" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
+      <c r="D20" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2061,17 +2089,17 @@
     </row>
     <row r="23" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
       <c r="A23" s="16"/>
-      <c r="B23" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
+      <c r="B23" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:16139" customHeight="1" ht="9.95" s="18" customFormat="1">
@@ -2089,43 +2117,43 @@
     </row>
     <row r="25" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110"/>
+      <c r="B25" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:16139" customHeight="1" ht="24.95" s="3" customFormat="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="114" t="s">
-        <v>11</v>
+      <c r="B26" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="122"/>
+        <v>17</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="104"/>
+      <c r="G26" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="105"/>
       <c r="I26" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="119" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="J26" s="102" t="s">
+        <v>21</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -2150,10 +2178,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E28" s="92"/>
       <c r="F28" s="91"/>
@@ -2179,7 +2207,7 @@
     <row r="30" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A30" s="1"/>
       <c r="B30" s="24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="7"/>
@@ -2232,29 +2260,29 @@
     </row>
     <row r="34" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="118"/>
+      <c r="B34" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="101"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="105"/>
+      <c r="F34" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="116"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="106"/>
+      <c r="I34" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="117"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A35" s="1"/>
       <c r="B35" s="87" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="90"/>
@@ -2280,58 +2308,58 @@
     </row>
     <row r="37" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="110"/>
+      <c r="B37" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="104"/>
+      <c r="B38" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="113"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="115"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="115"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
@@ -2382,10 +2410,10 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="116"/>
+      <c r="I44" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="99"/>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">
@@ -2471,13 +2499,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B38:J40"/>
@@ -2489,6 +2510,13 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/write.xlsx
+++ b/write.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Aston Bojonegoro City Hotel</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Handover Transaction No </t>
   </si>
   <si>
-    <t>0001</t>
+    <t>0002</t>
   </si>
   <si>
     <t>Handed Over To ( Name )</t>
@@ -55,7 +55,7 @@
     <t>Handover Date</t>
   </si>
   <si>
-    <t>2020-05-23</t>
+    <t>2020-06-17</t>
   </si>
   <si>
     <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
@@ -85,6 +85,27 @@
     <t xml:space="preserve">Remarks </t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Current Cost</t>
+  </si>
+  <si>
+    <t>Depreciation Amount</t>
+  </si>
+  <si>
+    <t>Ytd Depreciation</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>Cold Room Chiller w/ Rack</t>
+  </si>
+  <si>
+    <t>Kitchen Utilities</t>
+  </si>
+  <si>
     <t>Approved by: Finance Control, Head of Department, and General Manager</t>
   </si>
   <si>
@@ -95,9 +116,6 @@
   </si>
   <si>
     <t>General Manager</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>:</t>
@@ -199,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border/>
     <border>
       <left style="medium">
@@ -327,6 +345,25 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -460,6 +497,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -496,6 +544,17 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -512,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="133">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -696,196 +755,220 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1819,62 +1902,62 @@
     <row r="4" spans="1:16139" customHeight="1" ht="15"/>
     <row r="5" spans="1:16139" customHeight="1" ht="20.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
     </row>
     <row r="6" spans="1:16139" customHeight="1" ht="26.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:16139" customHeight="1" ht="15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:16139" customHeight="1" ht="24.95" s="3" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="97" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
@@ -1893,7 +1976,7 @@
     <row r="10" spans="1:16139" customHeight="1" ht="15" s="3" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="78"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
@@ -1909,11 +1992,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="46"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="46"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -1926,11 +2009,11 @@
         <v>6</v>
       </c>
       <c r="C12" s="45"/>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="45"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
@@ -1943,11 +2026,11 @@
         <v>7</v>
       </c>
       <c r="C13" s="45"/>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="45"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
@@ -1956,12 +2039,12 @@
     </row>
     <row r="14" spans="1:16139" customHeight="1" ht="15" s="3" customFormat="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="56"/>
@@ -1971,23 +2054,23 @@
       <c r="A15" s="1"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:16139" customHeight="1" ht="15" s="3" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
       <c r="J16" s="51"/>
@@ -1999,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="46"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="73" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="57"/>
@@ -2016,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="45"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="65" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="57"/>
@@ -2033,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="65" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="10"/>
@@ -2050,11 +2133,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2063,8 +2146,8 @@
     </row>
     <row r="21" spans="1:16139" customHeight="1" ht="15" s="3" customFormat="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
@@ -2089,17 +2172,17 @@
     </row>
     <row r="23" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
       <c r="A23" s="16"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:16139" customHeight="1" ht="9.95" s="18" customFormat="1">
@@ -2117,78 +2200,90 @@
     </row>
     <row r="25" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:16139" customHeight="1" ht="24.95" s="3" customFormat="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="103" t="s">
+      <c r="F26" s="109"/>
+      <c r="G26" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="107" t="s">
+      <c r="H26" s="110"/>
+      <c r="I26" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="102" t="s">
+      <c r="J26" s="106" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
+    <row r="27" spans="1:16139" customHeight="1" ht="32.25" s="3" customFormat="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="62"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="114"/>
+      <c r="J27" s="107"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:16139" customHeight="1" ht="22.5">
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="23">
-        <v>4</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="92" t="s">
+      <c r="B28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="62"/>
+      <c r="F28" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
@@ -2207,7 +2302,7 @@
     <row r="30" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A30" s="1"/>
       <c r="B30" s="24" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="7"/>
@@ -2222,7 +2317,7 @@
     <row r="31" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="75"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="4"/>
@@ -2235,7 +2330,7 @@
     <row r="32" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="75"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="4"/>
@@ -2249,8 +2344,8 @@
       <c r="A33" s="1"/>
       <c r="B33" s="25"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="47"/>
@@ -2260,36 +2355,36 @@
     </row>
     <row r="34" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="101"/>
+      <c r="B34" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="105"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="116"/>
+      <c r="F34" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="123"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="117"/>
+      <c r="I34" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="124"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="B35" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="93"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="14"/>
       <c r="K35" s="6"/>
     </row>
@@ -2308,64 +2403,64 @@
     </row>
     <row r="37" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
+      <c r="B37" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="115"/>
+      <c r="B38" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="120"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="122"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="115"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="122"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="122"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A41" s="1"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="76"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -2378,7 +2473,7 @@
     <row r="42" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A42" s="1"/>
       <c r="B42" s="29"/>
-      <c r="C42" s="76"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
@@ -2391,7 +2486,7 @@
     <row r="43" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
       <c r="A43" s="16"/>
       <c r="B43" s="29"/>
-      <c r="C43" s="76"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
@@ -2404,16 +2499,16 @@
     <row r="44" spans="1:16139" customHeight="1" ht="20.1" s="18" customFormat="1">
       <c r="A44" s="16"/>
       <c r="B44" s="29"/>
-      <c r="C44" s="76"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="99"/>
+      <c r="I44" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="103"/>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">

--- a/write.xlsx
+++ b/write.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Handover Transaction No </t>
   </si>
   <si>
-    <t>0002</t>
+    <t>0001</t>
   </si>
   <si>
     <t>Handed Over To ( Name )</t>
@@ -55,7 +55,7 @@
     <t>Handover Date</t>
   </si>
   <si>
-    <t>2020-06-17</t>
+    <t>2020-05-23</t>
   </si>
   <si>
     <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
@@ -97,13 +97,13 @@
     <t>Ytd Depreciation</t>
   </si>
   <si>
-    <t>0102</t>
-  </si>
-  <si>
-    <t>Cold Room Chiller w/ Rack</t>
-  </si>
-  <si>
-    <t>Kitchen Utilities</t>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>Cold Room Freezer w/ Rack</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
   </si>
   <si>
     <t>Approved by: Finance Control, Head of Department, and General Manager</t>
@@ -2272,10 +2272,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="96" t="s">
         <v>28</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>12</v>
       </c>
       <c r="F28" s="95">
         <v>0.0</v>

--- a/write.xlsx
+++ b/write.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Handover Transaction No </t>
   </si>
   <si>
-    <t>0001</t>
+    <t>0003</t>
   </si>
   <si>
     <t>Handed Over To ( Name )</t>
@@ -55,7 +55,7 @@
     <t>Handover Date</t>
   </si>
   <si>
-    <t>2020-05-23</t>
+    <t>21-06-2014</t>
   </si>
   <si>
     <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
@@ -97,13 +97,13 @@
     <t>Ytd Depreciation</t>
   </si>
   <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>Cold Room Freezer w/ Rack</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>Insect Killer</t>
+  </si>
+  <si>
+    <t>05-12-2013</t>
   </si>
   <si>
     <t>Approved by: Finance Control, Head of Department, and General Manager</t>
@@ -134,7 +134,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <b val="0"/>
@@ -462,6 +465,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -555,23 +569,12 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -878,26 +881,83 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -905,71 +965,20 @@
     <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="0" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="0" borderId="28" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,7 +1318,7 @@
   <dimension ref="A1:WVS51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1902,33 +1911,33 @@
     <row r="4" spans="1:16139" customHeight="1" ht="15"/>
     <row r="5" spans="1:16139" customHeight="1" ht="20.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:16139" customHeight="1" ht="26.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="1:16139" customHeight="1" ht="15">
       <c r="A7" s="85"/>
@@ -2133,11 +2142,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2172,17 +2181,17 @@
     </row>
     <row r="23" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
       <c r="A23" s="16"/>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:16139" customHeight="1" ht="9.95" s="18" customFormat="1">
@@ -2200,51 +2209,51 @@
     </row>
     <row r="25" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:16139" customHeight="1" ht="24.95" s="3" customFormat="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="108" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="113" t="s">
+      <c r="H26" s="130"/>
+      <c r="I26" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="106" t="s">
+      <c r="J26" s="126" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:16139" customHeight="1" ht="32.25" s="3" customFormat="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="114"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="77" t="s">
         <v>22</v>
       </c>
@@ -2257,8 +2266,8 @@
       <c r="H27" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="114"/>
-      <c r="J27" s="107"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="127"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:16139" customHeight="1" ht="22.5">
@@ -2274,15 +2283,21 @@
       <c r="D28" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="95">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
+      <c r="F28" s="134">
+        <v>25000000.0</v>
+      </c>
+      <c r="G28" s="134">
+        <v>9000000.0</v>
+      </c>
+      <c r="H28" s="134">
+        <v>9750000.0</v>
+      </c>
+      <c r="I28" s="134">
+        <v>15250000.0</v>
+      </c>
       <c r="J28" s="64"/>
       <c r="K28" s="6"/>
     </row>
@@ -2355,20 +2370,20 @@
     </row>
     <row r="34" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="105"/>
+      <c r="C34" s="125"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="123" t="s">
+      <c r="F34" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="123"/>
+      <c r="G34" s="110"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="123" t="s">
+      <c r="I34" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="124"/>
+      <c r="J34" s="111"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
@@ -2403,58 +2418,58 @@
     </row>
     <row r="37" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
@@ -2505,10 +2520,10 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="102" t="s">
+      <c r="I44" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="103"/>
+      <c r="J44" s="123"/>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">
@@ -2594,6 +2609,13 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B38:J40"/>
@@ -2605,13 +2627,6 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
